--- a/productionHydrogenOptModel/dataInputs/inputSheet.xlsx
+++ b/productionHydrogenOptModel/dataInputs/inputSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\KAUST\productionHydrogenOptModel\dataInputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247EF9B8-DA31-4FEB-B98B-DB5FE0D9D9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6FD42B-05AE-4254-A91A-678561462B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="266" yWindow="3591" windowWidth="24685" windowHeight="9455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="systemSettings" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -340,6 +340,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -650,21 +651,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -680,13 +681,13 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5">
-        <f>3288*1000</f>
-        <v>3288000</v>
+      <c r="B2" s="22">
+        <f>1.3*1000*1000*1000/365</f>
+        <v>3561643.8356164382</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>43</v>
@@ -697,7 +698,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -713,7 +714,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -729,7 +730,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -745,7 +746,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -758,10 +759,10 @@
       <c r="D6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>51</v>
       </c>
@@ -775,44 +776,44 @@
       <c r="D7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <f>800*1000</f>
-        <v>800000</v>
+        <f>1200*1000</f>
+        <v>1200000</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>41</v>
+      <c r="D8" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="6">
-        <f>700*1000</f>
-        <v>700000</v>
+        <f>740*1000</f>
+        <v>740000</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
+      <c r="D9" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -822,13 +823,13 @@
       <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -845,7 +846,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -862,7 +863,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -879,7 +880,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -896,7 +897,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -913,7 +914,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -929,7 +930,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -945,7 +946,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -961,7 +962,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
@@ -977,29 +978,30 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://www.eia.gov/todayinenergy/detail.php?id=46756" xr:uid="{42A22C02-7EB7-413C-977A-B6FEDF598BB5}"/>
     <hyperlink ref="D6" r:id="rId2" display="https://www.eia.gov/todayinenergy/detail.php?id=46756" xr:uid="{6E0F255B-D62E-4ACA-B20D-3797B3854F10}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{ADAFA0DD-53B6-4FFA-935E-26B412C7D10A}"/>
-    <hyperlink ref="D7" r:id="rId4" location="sec1" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S036031992033384X - sec1" xr:uid="{B3C7EFC7-C802-40EA-B68D-E316BAD7929E}"/>
+    <hyperlink ref="D7" r:id="rId3" location="sec1" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S036031992033384X - sec1" xr:uid="{B3C7EFC7-C802-40EA-B68D-E316BAD7929E}"/>
+    <hyperlink ref="D9" r:id="rId4" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S0360319919342089" xr:uid="{7446790E-9B25-4E22-9A4A-158573E7447B}"/>
+    <hyperlink ref="D8" r:id="rId5" display="https://www-sciencedirect-com.proxy.lib.umich.edu/science/article/pii/S0360319919342089" xr:uid="{EA2F9F2E-8A9C-4A54-8C22-093C93E67CEB}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{98F38E34-FCA7-4F30-87EA-1738906D3A9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1013,20 +1015,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.07421875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.69140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -1089,10 +1091,10 @@
         <v>5.0932548179871515E-2</v>
       </c>
       <c r="F3" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>48</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>5.0932548179871515E-2</v>
       </c>
       <c r="F4" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1127,19 +1129,19 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.3046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.53515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1179,10 +1181,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
